--- a/Project Outputs for Twintig-IMUs/BOM/Bill of Materials-Twintig-IMUs.xlsx
+++ b/Project Outputs for Twintig-IMUs/BOM/Bill of Materials-Twintig-IMUs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\Twintig\Twintig-IMUs\Project Outputs for Twintig-IMUs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD9EA063-A1BB-400E-A449-B0CB7E611656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{880B9B71-12DD-4E5B-B9B2-F2DDFA08374E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" xr2:uid="{E857A493-E7D3-4BC6-8E08-3B0C68F89A1F}"/>
+    <workbookView xWindow="2170" yWindow="1630" windowWidth="25350" windowHeight="19120" xr2:uid="{092E9BFA-B4A1-4450-B5F3-3809B9EE56E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Twintig-IMUs" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>U2_CH1, U2_CH2, U2_CH3, U2_CH4</t>
   </si>
   <si>
-    <t>ICM-42670-P</t>
+    <t>ICM-42688-P</t>
   </si>
   <si>
     <t>U3_CH1, U3_CH2, U3_CH3, U3_CH4</t>
@@ -472,20 +472,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156D70A8-D6CF-4BE1-B700-1D1BB2B7BC40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ECF0CC-BD73-45DD-9D92-1F875768B2E8}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="86.53125" customWidth="1"/>
-    <col min="2" max="2" width="10.9296875" customWidth="1"/>
-    <col min="3" max="3" width="24.9296875" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="87.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -527,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -541,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -555,7 +555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -569,7 +569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -583,7 +583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>

--- a/Project Outputs for Twintig-IMUs/BOM/Bill of Materials-Twintig-IMUs.xlsx
+++ b/Project Outputs for Twintig-IMUs/BOM/Bill of Materials-Twintig-IMUs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\Twintig\Twintig-IMUs\Project Outputs for Twintig-IMUs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{880B9B71-12DD-4E5B-B9B2-F2DDFA08374E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F53EFFD-BD03-4C76-9F4A-EDC5025E7F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="1630" windowWidth="25350" windowHeight="19120" xr2:uid="{092E9BFA-B4A1-4450-B5F3-3809B9EE56E1}"/>
+    <workbookView xWindow="15990" yWindow="1810" windowWidth="20070" windowHeight="18490" xr2:uid="{576172F2-28F4-4069-8F74-FCD1D76682B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Twintig-IMUs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Designator</t>
   </si>
@@ -51,22 +51,28 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>C1, C3_CH1, C3_CH2, C3_CH3, C3_CH4</t>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>220pF</t>
+  </si>
+  <si>
+    <t>Capacitor 0201</t>
+  </si>
+  <si>
+    <t>C2, C4_CH1, C4_CH2, C4_CH3, C4_CH4</t>
   </si>
   <si>
     <t>100nF</t>
   </si>
   <si>
-    <t>Capacitor 0201</t>
-  </si>
-  <si>
-    <t>C2_CH1, C2_CH2, C2_CH3, C2_CH4</t>
+    <t>C3_CH1, C3_CH2, C3_CH3, C3_CH4</t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>C4_CH1, C4_CH2, C4_CH3, C4_CH4</t>
+    <t>C5_CH1, C5_CH2, C5_CH3, C5_CH4</t>
   </si>
   <si>
     <t>2.2uF</t>
@@ -76,6 +82,15 @@
   </si>
   <si>
     <t>Molex 502426-2030</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>33R</t>
+  </si>
+  <si>
+    <t>Resistor 0201</t>
   </si>
   <si>
     <t>U1</t>
@@ -472,8 +487,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ECF0CC-BD73-45DD-9D92-1F875768B2E8}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3FBCC2-9FC5-44A0-8249-925EC626E39C}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -518,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -546,13 +561,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -566,18 +581,18 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -588,13 +603,41 @@
         <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs for Twintig-IMUs/BOM/Bill of Materials-Twintig-IMUs.xlsx
+++ b/Project Outputs for Twintig-IMUs/BOM/Bill of Materials-Twintig-IMUs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\Twintig\Twintig-IMUs\Project Outputs for Twintig-IMUs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F53EFFD-BD03-4C76-9F4A-EDC5025E7F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1210CE3E-4025-4AF8-84BD-74FF6BA4C42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15990" yWindow="1810" windowWidth="20070" windowHeight="18490" xr2:uid="{576172F2-28F4-4069-8F74-FCD1D76682B2}"/>
+    <workbookView xWindow="-27060" yWindow="2180" windowWidth="24600" windowHeight="17390" xr2:uid="{64D8F0D8-7FB6-4F74-B471-8A8C30C91E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Twintig-IMUs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Designator</t>
   </si>
@@ -51,28 +51,22 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>220pF</t>
+    <t>C1, C3_CH1, C3_CH2, C3_CH3, C3_CH4</t>
+  </si>
+  <si>
+    <t>100nF</t>
   </si>
   <si>
     <t>Capacitor 0201</t>
   </si>
   <si>
-    <t>C2, C4_CH1, C4_CH2, C4_CH3, C4_CH4</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C3_CH1, C3_CH2, C3_CH3, C3_CH4</t>
+    <t>C2_CH1, C2_CH2, C2_CH3, C2_CH4</t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>C5_CH1, C5_CH2, C5_CH3, C5_CH4</t>
+    <t>C4_CH1, C4_CH2, C4_CH3, C4_CH4</t>
   </si>
   <si>
     <t>2.2uF</t>
@@ -84,7 +78,7 @@
     <t>Molex 502426-2030</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>R1, R2</t>
   </si>
   <si>
     <t>33R</t>
@@ -487,8 +481,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3FBCC2-9FC5-44A0-8249-925EC626E39C}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5E202E-B835-4067-83C8-72713200D9D4}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -533,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -561,13 +555,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -575,38 +569,38 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -624,20 +618,6 @@
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs for Twintig-IMUs/BOM/Bill of Materials-Twintig-IMUs.xlsx
+++ b/Project Outputs for Twintig-IMUs/BOM/Bill of Materials-Twintig-IMUs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\Twintig\Twintig-IMUs\Project Outputs for Twintig-IMUs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1210CE3E-4025-4AF8-84BD-74FF6BA4C42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA98016D-47D9-4C4B-AC9E-97C1457337C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27060" yWindow="2180" windowWidth="24600" windowHeight="17390" xr2:uid="{64D8F0D8-7FB6-4F74-B471-8A8C30C91E12}"/>
+    <workbookView xWindow="1650" yWindow="6860" windowWidth="15000" windowHeight="13120" xr2:uid="{EFA6C76A-39D2-4FE3-831F-DCCA47028000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Twintig-IMUs" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5E202E-B835-4067-83C8-72713200D9D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACF4BA5-7843-4C03-A2B4-B70F7065C2DD}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Twintig-IMUs/BOM/Bill of Materials-Twintig-IMUs.xlsx
+++ b/Project Outputs for Twintig-IMUs/BOM/Bill of Materials-Twintig-IMUs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\Twintig\Twintig-IMUs\Project Outputs for Twintig-IMUs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA98016D-47D9-4C4B-AC9E-97C1457337C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA8FDE43-FA07-45AE-A46B-6E01E9FAF9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="6860" windowWidth="15000" windowHeight="13120" xr2:uid="{EFA6C76A-39D2-4FE3-831F-DCCA47028000}"/>
+    <workbookView xWindow="-37990" yWindow="610" windowWidth="20290" windowHeight="19380" xr2:uid="{AD9A20C5-1E62-4841-97AB-9A76A6D932B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Twintig-IMUs" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACF4BA5-7843-4C03-A2B4-B70F7065C2DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9D97E6-5CB3-4129-BC74-809D869C0094}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
